--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1931.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1931.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.042795122985333</v>
+        <v>0.4540694355964661</v>
       </c>
       <c r="B1">
-        <v>2.611125859990185</v>
+        <v>0.4067824184894562</v>
       </c>
       <c r="C1">
-        <v>3.812719323764567</v>
+        <v>4.516948699951172</v>
       </c>
       <c r="D1">
-        <v>1.815516859953102</v>
+        <v>2.694506168365479</v>
       </c>
       <c r="E1">
-        <v>1.284340974525542</v>
+        <v>1.211387395858765</v>
       </c>
     </row>
   </sheetData>
